--- a/googleSearchTestCases.xlsx
+++ b/googleSearchTestCases.xlsx
@@ -68,32 +68,18 @@
 is displayed </t>
   </si>
   <si>
-    <t>The First search result 
-Is 
-"What Is Test Automation? A Simple, Clear Introduction"</t>
-  </si>
-  <si>
-    <t>Search Key="Test Automation"
-Search result="What Is Test Automation? A Simple, Clear Introduction"</t>
-  </si>
-  <si>
     <t>*stable internet connection
-*Crome browser</t>
-  </si>
-  <si>
-    <t>Search Key="Test Automation"
-Second Search Result =
-"Automation Interface - PanelMate Operator Interface"</t>
+*chrome browser</t>
   </si>
   <si>
     <t xml:space="preserve">
-*Open Crome
+*Open chrome
 *Write "Search Key" 
 in the search bar 
 *Click enter</t>
   </si>
   <si>
-    <t>*Open Crome
+    <t>*Open chrome
 *Write "Search Key" 
 in the search bar 
 *Click enter
@@ -101,21 +87,80 @@
 *Click Next</t>
   </si>
   <si>
-    <t>*Open Crome
+    <t xml:space="preserve">Search Key="Test Automation"
+</t>
+  </si>
+  <si>
+    <r>
+      <t>The First</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Search result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+is displayed  
+"What Is Test Automation? A Simple, Clear Introduction"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search Key="Test Automation"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>="What Is Test Automation? A Simple, Clear Introduction"</t>
+    </r>
+  </si>
+  <si>
+    <t>*Open chrome
 *Write "Search Key" 
 in the search bar 
 *Click enter
 *Scroll down
 *Click Next
 *Scroll down
-*Click Previos</t>
+*Click Previous</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +171,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -465,7 +518,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -514,16 +567,16 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="103.8" customHeight="1">
@@ -534,10 +587,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>19</v>
@@ -554,13 +607,13 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
